--- a/medicine/Sexualité et sexologie/Autassassinophilie/Autassassinophilie.xlsx
+++ b/medicine/Sexualité et sexologie/Autassassinophilie/Autassassinophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'autassassinophilie est une paraphilie dans laquelle un individu est sexuellement attiré par le risque d'être tué. Ce fétichisme peut inclure certains facteurs qui peuvent mettre en danger la vie d'autrui, comme la noyade ou l'étranglement.
 </t>
